--- a/Data/Plant community cover.xlsx
+++ b/Data/Plant community cover.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\helen\Documents\GitHub\Buffelgrass\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70F84282-BDE1-4E04-AEBC-D3ADCC22135F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F9B8E1A-3F12-43C9-BF7D-B1A14BBD4824}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="480" yWindow="60" windowWidth="18072" windowHeight="8304" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -548,7 +548,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A34" sqref="A34:XFD34"/>
+      <selection pane="bottomLeft" activeCell="C24" sqref="C22:C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
